--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_245.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_245.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0761904761904762</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G'], ['C', 'C:min', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03974358974358974</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/3', 'G', 'G'], ['C', 'C:min', 'G/3']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.940758, 23.936132), (24.911369, 30.797628)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb:7', 'Ab'], ['F:min7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.366439, 5.255782), (15.565442, 19.466394)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:06.700000', '0:00:11.860000'), ('0:00:51.800000', '0:00:59.900000'), ('0:01:04.660000', '0:01:11.060000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:18.070000', '0:00:19.250000'), ('0:00:00', '0:00:02.430000'), ('0:00:17.680000', '0:00:18.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.24, 36.6), (0.24, 8.18)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.12, 46.12), (283.3, 287.58)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.880000', '0:00:22.200000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1922196796338673</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.632675, 27.452358)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3311965811965812</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.8, 10.54)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:06.220000', '0:00:14.320000'), ('0:00:07.400000', '0:00:16.480000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.140000', '0:00:07.700000'), ('0:00:02.300000', '0:00:09.880000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3639705882352942</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A']]</t>
-        </is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1888888888888889</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A', 'E']]</t>
+          <t>[['F#', 'B', 'A/9', 'E/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.913, 28.337)]</t>
+          <t>[['G', 'C', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.435, 54.729)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:59.356575', '0:01:04.894535')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:32.700068', '0:00:40.803832')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1651651651651652</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D', 'G', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:51.584671', '0:00:57.203900')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:06.886543', '0:00:14.990307')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58)]</t>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4144736842105263</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'B', 'E']]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(49.731904, 55.420793)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(68.150589, 86.221693)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:02.385936', '0:00:06.194008')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08228247162673392</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_144</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04), (0.86, 5.14)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'A:min7'], ['G', 'C', 'G/3']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5), (17.34, 24.4)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.259614, 27.476822), (18.826145, 26.43068)]</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.18, 51.98)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(65.28, 71.0)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_10</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1420265780730897</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G/3']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(34.416, 41.151)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.073119, 5.68228)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
